--- a/sylaby otwarte.xlsx
+++ b/sylaby otwarte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\PRAKTYKI\Syntezator-mowy-praktyki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D86BA-4576-48B1-89ED-43C24514CF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019B07D-2BC5-40AA-AA46-97BC280E796C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="15750" xr2:uid="{9A0BDF96-98D4-45A5-BC96-61EDE3A6D044}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="251">
   <si>
     <t>a</t>
   </si>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,11 +1204,15 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2025,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ref="C31:I31" si="0">COUNTA(C2:C30)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -2029,7 +2033,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
